--- a/prot/356379915/Переход трубопровода через р. Енисей/OCR/1068.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/OCR/1068.xlsx
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="23" t="n">
-        <v>1.054030926238349</v>
+        <v>1.052647111209448</v>
       </c>
       <c r="E28" s="12" t="n"/>
       <c r="F28" s="31" t="n"/>
@@ -3356,43 +3356,43 @@
         <v>0.0125</v>
       </c>
       <c r="O28" s="81" t="n">
-        <v>1.32607923904723</v>
+        <v>1.322101767081215</v>
       </c>
       <c r="P28" s="81" t="n">
-        <v>0.444781953273661</v>
+        <v>0.4453225860577786</v>
       </c>
       <c r="Q28" s="81" t="n">
-        <v>0.9370383153595399</v>
+        <v>0.93359486193358</v>
       </c>
       <c r="R28" s="81" t="n">
-        <v>0.444781953273661</v>
+        <v>0.4453225860577786</v>
       </c>
       <c r="S28" s="81" t="n">
-        <v>0.9370383153595399</v>
+        <v>0.93359486193358</v>
       </c>
       <c r="T28" s="81" t="n">
-        <v>0.444781953273661</v>
+        <v>0.4453225860577786</v>
       </c>
       <c r="U28" s="81" t="n">
-        <v>0.9370383153595399</v>
+        <v>0.93359486193358</v>
       </c>
       <c r="V28" s="81" t="n">
-        <v>0.7919327975624308</v>
+        <v>0.7901273334604108</v>
       </c>
       <c r="W28" s="81" t="n">
-        <v>0.9198295149002473</v>
+        <v>0.9164100444104434</v>
       </c>
       <c r="X28" s="81" t="n">
-        <v>0.7919327975624308</v>
+        <v>0.7901273334604108</v>
       </c>
       <c r="Y28" s="81" t="n">
-        <v>0.9198295149002473</v>
+        <v>0.9164100444104434</v>
       </c>
       <c r="Z28" s="81" t="n">
         <v>0.0125</v>
       </c>
       <c r="AA28" s="81" t="n">
-        <v>1.150136468480015</v>
+        <v>1.147766737860454</v>
       </c>
       <c r="AB28" s="81" t="n"/>
       <c r="AC28" s="81" t="n"/>
@@ -3410,10 +3410,10 @@
         <v>0.025</v>
       </c>
       <c r="C29" s="35" t="n">
-        <v>0.02189003512459553</v>
+        <v>0.02254899466216777</v>
       </c>
       <c r="D29" s="23" t="n">
-        <v>1.038707901651133</v>
+        <v>1.03686281494593</v>
       </c>
       <c r="E29" s="12" t="n"/>
       <c r="F29" s="31" t="n"/>
@@ -3427,34 +3427,34 @@
         <v>6.4</v>
       </c>
       <c r="O29" s="81" t="n">
-        <v>0.7152159801013893</v>
+        <v>0.7117417671803079</v>
       </c>
       <c r="P29" s="81" t="n">
         <v>0.4</v>
       </c>
       <c r="Q29" s="81" t="n">
-        <v>0.9370383153595399</v>
+        <v>0.93359486193358</v>
       </c>
       <c r="R29" s="81" t="n">
         <v>0.4</v>
       </c>
       <c r="S29" s="81" t="n">
-        <v>0.9402038822993413</v>
+        <v>0.9368117041336794</v>
       </c>
       <c r="T29" s="81" t="n">
         <v>0.4</v>
       </c>
       <c r="U29" s="81" t="n">
-        <v>0.9433694492391427</v>
+        <v>0.9400285463337787</v>
       </c>
       <c r="V29" s="81" t="n">
-        <v>0.7919327975624308</v>
+        <v>0.7901273334604108</v>
       </c>
       <c r="W29" s="81" t="n">
-        <v>0.9198295149002473</v>
+        <v>0.9164100444104434</v>
       </c>
       <c r="X29" s="81" t="n">
-        <v>0.7919327975624308</v>
+        <v>0.7901273334604108</v>
       </c>
       <c r="Y29" s="81" t="n">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>4.00625</v>
       </c>
       <c r="AA29" s="81" t="n">
-        <v>0.8059032686305722</v>
+        <v>0.8019166953212324</v>
       </c>
       <c r="AB29" s="81" t="n"/>
       <c r="AC29" s="81" t="n"/>
@@ -3481,10 +3481,10 @@
         <v>0.05</v>
       </c>
       <c r="C30" s="35" t="n">
-        <v>0.0291867134994607</v>
+        <v>0.0300653262162237</v>
       </c>
       <c r="D30" s="23" t="n">
-        <v>1.046515473094268</v>
+        <v>1.043971825429383</v>
       </c>
       <c r="E30" s="12" t="n"/>
       <c r="F30" s="31" t="n"/>
@@ -3498,34 +3498,34 @@
         <v>8</v>
       </c>
       <c r="O30" s="81" t="n">
-        <v>0.6933655306359315</v>
+        <v>0.6899093191843579</v>
       </c>
       <c r="P30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="Q30" s="81" t="n">
-        <v>0.9370383153595399</v>
+        <v>0.93359486193358</v>
       </c>
       <c r="R30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="S30" s="81" t="n">
-        <v>0.8508406633440151</v>
+        <v>0.8470287514996573</v>
       </c>
       <c r="T30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="U30" s="81" t="n">
-        <v>0.7646430113284904</v>
+        <v>0.7604626410657346</v>
       </c>
       <c r="V30" s="81" t="n">
-        <v>0.7919327975624308</v>
+        <v>0.7901273334604108</v>
       </c>
       <c r="W30" s="81" t="n">
-        <v>0.9198295149002473</v>
+        <v>0.9164100444104434</v>
       </c>
       <c r="X30" s="81" t="n">
-        <v>0.7919327975624308</v>
+        <v>0.7901273334604108</v>
       </c>
       <c r="Y30" s="81" t="n">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>8</v>
       </c>
       <c r="AA30" s="81" t="n">
-        <v>0.7646430113284939</v>
+        <v>0.7604626410657329</v>
       </c>
       <c r="AB30" s="81" t="n"/>
       <c r="AC30" s="81" t="n"/>
@@ -3552,10 +3552,10 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="35" t="n">
-        <v>0.02546882233606279</v>
+        <v>0.02668008312886514</v>
       </c>
       <c r="D31" s="23" t="n">
-        <v>1.015349574513659</v>
+        <v>1.0125071820789</v>
       </c>
       <c r="E31" s="12" t="n"/>
       <c r="F31" s="31" t="n"/>
@@ -3595,10 +3595,10 @@
         <v>0.2</v>
       </c>
       <c r="C32" s="35" t="n">
-        <v>0.04030972642206707</v>
+        <v>0.04166324662909537</v>
       </c>
       <c r="D32" s="23" t="n">
-        <v>0.9847228530873172</v>
+        <v>0.9815761846391138</v>
       </c>
       <c r="E32" s="12" t="n"/>
       <c r="F32" s="31" t="n"/>
@@ -3638,10 +3638,10 @@
         <v>0.4</v>
       </c>
       <c r="C33" s="35" t="n">
-        <v>0.05489387948222996</v>
+        <v>0.05639229302899348</v>
       </c>
       <c r="D33" s="23" t="n">
-        <v>0.9433694492391427</v>
+        <v>0.9400285463337787</v>
       </c>
       <c r="E33" s="12" t="n"/>
       <c r="F33" s="31" t="n"/>
@@ -3681,10 +3681,10 @@
         <v>0.8</v>
       </c>
       <c r="C34" s="35" t="n">
-        <v>0.07458597655278927</v>
+        <v>0.07617688269820067</v>
       </c>
       <c r="D34" s="23" t="n">
-        <v>0.8945630272133844</v>
+        <v>0.8911043479473167</v>
       </c>
       <c r="G34" s="31" t="n"/>
       <c r="H34" s="31" t="n"/>
@@ -3722,10 +3722,10 @@
         <v>1.6</v>
       </c>
       <c r="C35" s="35" t="n">
-        <v>0.09782712989838843</v>
+        <v>0.09947412002508732</v>
       </c>
       <c r="D35" s="23" t="n">
-        <v>0.8392710252333596</v>
+        <v>0.835761103068054</v>
       </c>
       <c r="E35" s="12" t="n"/>
       <c r="F35" s="73" t="inlineStr">
@@ -3738,7 +3738,7 @@
       <c r="I35" s="56" t="n"/>
       <c r="J35" s="57" t="n"/>
       <c r="K35" s="46" t="n">
-        <v>0.7919327975624308</v>
+        <v>0.7901273334604108</v>
       </c>
       <c r="L35" s="13" t="n"/>
       <c r="N35" s="81" t="n"/>
@@ -3771,10 +3771,10 @@
         <v>3.2</v>
       </c>
       <c r="C36" s="35" t="n">
-        <v>0.1241566546507812</v>
+        <v>0.1258280461580696</v>
       </c>
       <c r="D36" s="23" t="n">
-        <v>0.7790226779189697</v>
+        <v>0.7755123583938599</v>
       </c>
       <c r="E36" s="12" t="n"/>
       <c r="F36" s="67" t="inlineStr">
@@ -3820,10 +3820,10 @@
         <v>6.4</v>
       </c>
       <c r="C37" s="35" t="n">
-        <v>0.1528463438481097</v>
+        <v>0.1545179245743525</v>
       </c>
       <c r="D37" s="23" t="n">
-        <v>0.7152159801013893</v>
+        <v>0.7117417671803079</v>
       </c>
       <c r="E37" s="12" t="n"/>
       <c r="F37" s="67" t="inlineStr">
@@ -3836,7 +3836,7 @@
       <c r="I37" s="49" t="n"/>
       <c r="J37" s="50" t="n"/>
       <c r="K37" s="45" t="n">
-        <v>15.83865595124862</v>
+        <v>15.80254666920821</v>
       </c>
       <c r="L37" s="13" t="n"/>
       <c r="N37" s="81" t="n"/>
@@ -3869,10 +3869,10 @@
         <v>8</v>
       </c>
       <c r="C38" s="36" t="n">
-        <v>0.1832304856660051</v>
+        <v>0.184884872771282</v>
       </c>
       <c r="D38" s="25" t="n">
-        <v>0.6933655306359315</v>
+        <v>0.6899093191843579</v>
       </c>
       <c r="E38" s="12" t="n"/>
       <c r="F38" s="68" t="inlineStr">
@@ -3885,7 +3885,7 @@
       <c r="I38" s="69" t="n"/>
       <c r="J38" s="70" t="n"/>
       <c r="K38" s="47" t="n">
-        <v>0.7419327975624308</v>
+        <v>0.7401273334604107</v>
       </c>
       <c r="L38" s="13" t="n"/>
       <c r="N38" s="81" t="n"/>
@@ -4191,7 +4191,7 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="O45" s="91" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="P45" s="88" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="S45" s="88" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="T45" s="88" t="n"/>
       <c r="U45" s="81" t="n"/>
@@ -4229,10 +4229,10 @@
         <v>0.0125</v>
       </c>
       <c r="C46" s="35" t="n">
-        <v>0.136812719528722</v>
+        <v>0.1409312166385486</v>
       </c>
       <c r="D46" s="37" t="n">
-        <v>0.136812719528722</v>
+        <v>0.1409312166385486</v>
       </c>
       <c r="E46" s="31" t="n"/>
       <c r="F46" s="31" t="n"/>
@@ -4252,13 +4252,13 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="Q46" s="87" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="R46" s="88" t="n">
         <v>0.7000000000000001</v>
       </c>
       <c r="S46" s="88" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="T46" s="88" t="n"/>
       <c r="U46" s="81" t="n"/>
@@ -4284,10 +4284,10 @@
         <v>0.025</v>
       </c>
       <c r="C47" s="35" t="n">
-        <v>0.136812719528722</v>
+        <v>0.1409312166385486</v>
       </c>
       <c r="D47" s="37" t="n">
-        <v>0.273625439057444</v>
+        <v>0.2818624332770971</v>
       </c>
       <c r="E47" s="31" t="n"/>
       <c r="F47" s="31" t="n"/>
@@ -4327,10 +4327,10 @@
         <v>0.05</v>
       </c>
       <c r="C48" s="35" t="n">
-        <v>-0.1394209186274214</v>
+        <v>-0.1269466157759457</v>
       </c>
       <c r="D48" s="37" t="n">
-        <v>0.1342045204300226</v>
+        <v>0.1549158175011515</v>
       </c>
       <c r="E48" s="31" t="n"/>
       <c r="F48" s="31" t="n"/>
@@ -4370,10 +4370,10 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="35" t="n">
-        <v>1.113067806450321</v>
+        <v>1.123737262517267</v>
       </c>
       <c r="D49" s="37" t="n">
-        <v>1.247272326880344</v>
+        <v>1.278653080018418</v>
       </c>
       <c r="E49" s="31" t="n"/>
       <c r="F49" s="31" t="n"/>
@@ -4413,10 +4413,10 @@
         <v>0.2</v>
       </c>
       <c r="C50" s="35" t="n">
-        <v>2.187622959024433</v>
+        <v>2.209356959984718</v>
       </c>
       <c r="D50" s="37" t="n">
-        <v>3.434895285904777</v>
+        <v>3.488010040003136</v>
       </c>
       <c r="E50" s="31" t="n"/>
       <c r="F50" s="31" t="n"/>
@@ -4456,10 +4456,10 @@
         <v>0.4</v>
       </c>
       <c r="C51" s="35" t="n">
-        <v>5.907629121167794</v>
+        <v>5.935376900762154</v>
       </c>
       <c r="D51" s="37" t="n">
-        <v>9.34252440707257</v>
+        <v>9.42338694076529</v>
       </c>
       <c r="E51" s="31" t="n"/>
       <c r="F51" s="31" t="n"/>
@@ -4499,10 +4499,10 @@
         <v>0.8</v>
       </c>
       <c r="C52" s="35" t="n">
-        <v>13.9446920073595</v>
+        <v>13.97834239613199</v>
       </c>
       <c r="D52" s="37" t="n">
-        <v>23.28721641443207</v>
+        <v>23.40172933689728</v>
       </c>
       <c r="E52" s="31" t="n"/>
       <c r="F52" s="73" t="inlineStr">
@@ -4548,10 +4548,10 @@
         <v>1.6</v>
       </c>
       <c r="C53" s="35" t="n">
-        <v>31.59542970287131</v>
+        <v>31.6247113595787</v>
       </c>
       <c r="D53" s="37" t="n">
-        <v>54.88264611730338</v>
+        <v>55.02644069647599</v>
       </c>
       <c r="E53" s="31" t="n"/>
       <c r="F53" s="67" t="inlineStr">
@@ -4597,10 +4597,10 @@
         <v>3.2</v>
       </c>
       <c r="C54" s="35" t="n">
-        <v>68.85525407358836</v>
+        <v>68.85570819907895</v>
       </c>
       <c r="D54" s="37" t="n">
-        <v>123.7379001908917</v>
+        <v>123.8821488955549</v>
       </c>
       <c r="E54" s="31" t="n"/>
       <c r="F54" s="67" t="inlineStr">
@@ -4646,10 +4646,10 @@
         <v>6.4</v>
       </c>
       <c r="C55" s="36" t="n">
-        <v>145.8438807258983</v>
+        <v>145.7613513452615</v>
       </c>
       <c r="D55" s="38" t="n">
-        <v>269.5817809167901</v>
+        <v>269.6435002408165</v>
       </c>
       <c r="E55" s="31" t="n"/>
       <c r="F55" s="68" t="inlineStr">
@@ -4695,7 +4695,7 @@
         <v>8</v>
       </c>
       <c r="C56" s="31" t="n">
-        <v>74.91582673871233</v>
+        <v>74.85410741468593</v>
       </c>
       <c r="D56" s="31" t="n">
         <v>344.4976076555024</v>
